--- a/results/class-scale.xlsx
+++ b/results/class-scale.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I5">
@@ -664,7 +664,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I6">
@@ -817,7 +817,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I9">
@@ -970,7 +970,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I15">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I16">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I21">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I25">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I37">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I45">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I46">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I49">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I51">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I56">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I60">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I62">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I63">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I65">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I68">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I70">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I71">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Piping</t>
+          <t>Improved Drinking Water</t>
         </is>
       </c>
       <c r="I72">

--- a/results/class-scale.xlsx
+++ b/results/class-scale.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I2">
@@ -511,7 +511,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I3">
@@ -562,7 +562,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I4">
@@ -613,7 +613,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I5">
@@ -664,7 +664,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I6">
@@ -715,7 +715,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I7">
@@ -766,7 +766,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I8">
@@ -817,7 +817,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I9">
@@ -868,7 +868,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I10">
@@ -919,7 +919,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I11">
@@ -970,7 +970,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I12">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I13">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I14">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I15">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I16">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I17">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I18">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I19">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I20">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I21">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I22">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I23">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I24">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I25">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I26">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I27">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I28">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I29">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I30">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I31">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I32">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I33">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I34">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I35">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I36">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I37">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I38">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I39">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I40">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I41">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I42">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I43">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I44">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I45">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I46">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I47">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I48">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I49">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I50">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I51">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I52">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I53">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I54">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I55">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I56">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I57">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I58">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I59">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I60">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I61">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I62">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I63">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I64">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I65">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I66">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="I67">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I68">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I69">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I70">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I71">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Improved Drinking Water</t>
+          <t>Centralized</t>
         </is>
       </c>
       <c r="I72">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I73">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Off-premise</t>
+          <t>Decentralized</t>
         </is>
       </c>
       <c r="I74">
